--- a/Results/coef_5F.xlsx
+++ b/Results/coef_5F.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="23">
   <si>
     <t>Row</t>
   </si>
@@ -102,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -114,16 +114,52 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,98 +169,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:P11"/>
+  <dimension ref="D1:P13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="15.7265625" customWidth="true"/>
-    <col min="5" max="5" width="14.08984375" customWidth="true"/>
-    <col min="6" max="6" width="13.453125" customWidth="true"/>
-    <col min="7" max="7" width="12.453125" customWidth="true"/>
-    <col min="8" max="8" width="11.453125" customWidth="true"/>
-    <col min="9" max="9" width="13.08984375" customWidth="true"/>
-    <col min="10" max="10" width="12.08984375" customWidth="true"/>
-    <col min="11" max="11" width="13.08984375" customWidth="true"/>
-    <col min="12" max="12" width="12.08984375" customWidth="true"/>
-    <col min="13" max="13" width="15.08984375" customWidth="true"/>
-    <col min="14" max="14" width="13.08984375" customWidth="true"/>
+    <col min="4" max="4" width="10" customWidth="true"/>
+    <col min="5" max="5" width="15.36328125" customWidth="true"/>
+    <col min="6" max="6" width="15.7265625" customWidth="true"/>
+    <col min="7" max="7" width="14.08984375" customWidth="true"/>
+    <col min="8" max="8" width="14.08984375" customWidth="true"/>
+    <col min="9" max="9" width="13.453125" customWidth="true"/>
+    <col min="10" max="10" width="14.08984375" customWidth="true"/>
+    <col min="11" max="11" width="14.08984375" customWidth="true"/>
+    <col min="12" max="12" width="14.08984375" customWidth="true"/>
+    <col min="13" max="13" width="14.08984375" customWidth="true"/>
+    <col min="14" max="14" width="14.08984375" customWidth="true"/>
     <col min="15" max="15" width="14.08984375" customWidth="true"/>
     <col min="16" max="16" width="12.08984375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>-0.2021191500195734</v>
+        <v>-0.27723911389978162</v>
       </c>
       <c r="F2">
-        <v>-2.4445775458036754</v>
+        <v>0.12567738266249043</v>
       </c>
       <c r="G2">
-        <v>1.0331850471484993</v>
+        <v>-0.079059657431446551</v>
       </c>
       <c r="H2">
-        <v>48.849010783199617</v>
+        <v>-0.03205882475605918</v>
       </c>
       <c r="I2">
-        <v>1.2484311634083851</v>
+        <v>0.016164523631221742</v>
       </c>
       <c r="J2">
-        <v>42.752215960805607</v>
+        <v>-0.017720715128718957</v>
       </c>
       <c r="K2">
-        <v>-0.41853109537233008</v>
+        <v>0.17324098288816325</v>
       </c>
       <c r="L2">
-        <v>-10.204922204821028</v>
+        <v>-0.11295817417551816</v>
       </c>
       <c r="M2">
-        <v>-0.50898464160659695</v>
+        <v>0.11755155131774819</v>
       </c>
       <c r="N2">
-        <v>-12.523630996566382</v>
+        <v>-0.024416351932121695</v>
       </c>
       <c r="O2">
         <v>-0.14258941451789867</v>
@@ -234,38 +270,38 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="3" t="s">
-        <v>2</v>
+      <c r="D3" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.75868620470607284</v>
+        <v>-3.2417944300451556</v>
       </c>
       <c r="F3">
-        <v>13.467739379923319</v>
+        <v>2.2058038504358439</v>
       </c>
       <c r="G3">
-        <v>0.94913681411995487</v>
+        <v>-1.2922670400959344</v>
       </c>
       <c r="H3">
-        <v>65.86317176269435</v>
+        <v>-0.59094850277960698</v>
       </c>
       <c r="I3">
-        <v>1.0541718030924749</v>
+        <v>0.28010555624503741</v>
       </c>
       <c r="J3">
-        <v>52.983614964482939</v>
+        <v>-0.24396281612725101</v>
       </c>
       <c r="K3">
-        <v>0.49914632725693531</v>
+        <v>2.8750906582099409</v>
       </c>
       <c r="L3">
-        <v>17.862654958443503</v>
+        <v>-1.357294083090989</v>
       </c>
       <c r="M3">
-        <v>-0.020673701057448014</v>
+        <v>2.7848602859955176</v>
       </c>
       <c r="N3">
-        <v>-0.74658623452097317</v>
+        <v>-0.26520488712510198</v>
       </c>
       <c r="O3">
         <v>0.061696789263242353</v>
@@ -275,38 +311,38 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="3" t="s">
-        <v>3</v>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0.0025879368599264433</v>
+        <v>1.0354753919087594</v>
       </c>
       <c r="F4">
-        <v>0.043728342254895677</v>
+        <v>0.96034220547039206</v>
       </c>
       <c r="G4">
-        <v>1.0924272355538365</v>
+        <v>1.0945745526731347</v>
       </c>
       <c r="H4">
-        <v>72.157779873677356</v>
+        <v>1.0705395254893271</v>
       </c>
       <c r="I4">
-        <v>0.97261951258387858</v>
+        <v>1.0631457720383741</v>
       </c>
       <c r="J4">
-        <v>46.531814649311428</v>
+        <v>1.0960553484467552</v>
       </c>
       <c r="K4">
-        <v>-0.45374186150242435</v>
+        <v>1.0593517272558888</v>
       </c>
       <c r="L4">
-        <v>-15.456238081403097</v>
+        <v>1.1605112541641893</v>
       </c>
       <c r="M4">
-        <v>-0.17081257242865827</v>
+        <v>0.97316491704690344</v>
       </c>
       <c r="N4">
-        <v>-5.8716262078245762</v>
+        <v>1.0595568275898268</v>
       </c>
       <c r="O4">
         <v>-0.1503702893272221</v>
@@ -316,38 +352,38 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="3" t="s">
-        <v>4</v>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0.56782350038015528</v>
+        <v>48.741918014682518</v>
       </c>
       <c r="F5">
-        <v>10.273125313660026</v>
+        <v>67.852779336295612</v>
       </c>
       <c r="G5">
-        <v>1.0576739913803161</v>
+        <v>72.023554271699965</v>
       </c>
       <c r="H5">
-        <v>74.803575042943919</v>
+        <v>79.439519496179486</v>
       </c>
       <c r="I5">
-        <v>0.85502165094439087</v>
+        <v>74.162351632843311</v>
       </c>
       <c r="J5">
-        <v>43.798981286533909</v>
+        <v>60.744469324994846</v>
       </c>
       <c r="K5">
-        <v>0.67180094359390785</v>
+        <v>70.773870394785433</v>
       </c>
       <c r="L5">
-        <v>24.50278480127816</v>
+        <v>56.135489136283326</v>
       </c>
       <c r="M5">
-        <v>-0.0081046178183090452</v>
+        <v>92.809696824003765</v>
       </c>
       <c r="N5">
-        <v>-0.29829844748700252</v>
+        <v>46.329420071074132</v>
       </c>
       <c r="O5">
         <v>-0.033248566207056275</v>
@@ -357,38 +393,38 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="3" t="s">
-        <v>5</v>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>-0.023990881809241575</v>
+        <v>1.2538100836689383</v>
       </c>
       <c r="F6">
-        <v>-0.43079624366266606</v>
+        <v>1.0739143965919693</v>
       </c>
       <c r="G6">
-        <v>1.0626464152336985</v>
+        <v>0.97738475388694068</v>
       </c>
       <c r="H6">
-        <v>74.592606714250067</v>
+        <v>0.88083152310805835</v>
       </c>
       <c r="I6">
-        <v>0.70570270991594064</v>
+        <v>0.7082752306674398</v>
       </c>
       <c r="J6">
-        <v>35.879398682445306</v>
+        <v>0.60490270446161021</v>
       </c>
       <c r="K6">
-        <v>-0.42317548425333346</v>
+        <v>0.3643150835744704</v>
       </c>
       <c r="L6">
-        <v>-15.319049151100689</v>
+        <v>0.29435329293743001</v>
       </c>
       <c r="M6">
-        <v>-0.14750458331953037</v>
+        <v>-0.19409748300855226</v>
       </c>
       <c r="N6">
-        <v>-5.3884076190146937</v>
+        <v>-0.14092166875623505</v>
       </c>
       <c r="O6">
         <v>-0.24986348633236496</v>
@@ -398,38 +434,38 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="3" t="s">
-        <v>6</v>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>0.5723885893407834</v>
+        <v>42.421574735268848</v>
       </c>
       <c r="F7">
-        <v>7.9237085643829195</v>
+        <v>54.538537202935409</v>
       </c>
       <c r="G7">
-        <v>1.0834493760681427</v>
+        <v>46.226068407952773</v>
       </c>
       <c r="H7">
-        <v>58.631020894633636</v>
+        <v>46.980641860733897</v>
       </c>
       <c r="I7">
-        <v>0.57967122616341482</v>
+        <v>35.512800813017442</v>
       </c>
       <c r="J7">
-        <v>22.720450785699178</v>
+        <v>24.096389690102015</v>
       </c>
       <c r="K7">
-        <v>0.68103509376886728</v>
+        <v>17.494523378809582</v>
       </c>
       <c r="L7">
-        <v>19.006083420805616</v>
+        <v>10.234090393317429</v>
       </c>
       <c r="M7">
-        <v>0.14422376262457806</v>
+        <v>-13.305126521610903</v>
       </c>
       <c r="N7">
-        <v>4.0616601098912337</v>
+        <v>-4.4289684043608268</v>
       </c>
       <c r="O7">
         <v>0.056904418104709399</v>
@@ -439,38 +475,38 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="3" t="s">
-        <v>7</v>
+      <c r="D8" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>0.071343700429051915</v>
+        <v>-0.42070081124206476</v>
       </c>
       <c r="F8">
-        <v>1.2268371686389927</v>
+        <v>0.48590924542902725</v>
       </c>
       <c r="G8">
-        <v>1.0604324052082643</v>
+        <v>-0.4558868746264082</v>
       </c>
       <c r="H8">
-        <v>71.284579228532635</v>
+        <v>0.65785603055060138</v>
       </c>
       <c r="I8">
-        <v>0.36520771038301131</v>
+        <v>-0.42309023678809832</v>
       </c>
       <c r="J8">
-        <v>17.781520946782098</v>
+        <v>0.66734851279729179</v>
       </c>
       <c r="K8">
-        <v>-0.4272954442947417</v>
+        <v>-0.42561542337074865</v>
       </c>
       <c r="L8">
-        <v>-14.813073211221006</v>
+        <v>0.76737440954805702</v>
       </c>
       <c r="M8">
-        <v>-0.12471718338068548</v>
+        <v>-0.30784031181929822</v>
       </c>
       <c r="N8">
-        <v>-4.3630161204920714</v>
+        <v>1.0019209125328545</v>
       </c>
       <c r="O8">
         <v>-0.078028191537272543</v>
@@ -480,38 +516,38 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>0.2983638983890442</v>
+        <v>-10.254685549191347</v>
       </c>
       <c r="F9">
-        <v>3.6642748711291091</v>
+        <v>17.778002132480182</v>
       </c>
       <c r="G9">
-        <v>1.1512852633734827</v>
+        <v>-15.53361212503531</v>
       </c>
       <c r="H9">
-        <v>55.272107350236745</v>
+        <v>25.278478354533117</v>
       </c>
       <c r="I9">
-        <v>0.2753778523940914</v>
+        <v>-15.283043366698905</v>
       </c>
       <c r="J9">
-        <v>9.5756541976481895</v>
+        <v>19.151955295245802</v>
       </c>
       <c r="K9">
-        <v>0.77718818883432095</v>
+        <v>-14.724355369049672</v>
       </c>
       <c r="L9">
-        <v>19.242149137181279</v>
+        <v>19.221250235170356</v>
       </c>
       <c r="M9">
-        <v>0.027839714611557532</v>
+        <v>-15.202624400436727</v>
       </c>
       <c r="N9">
-        <v>0.69556189199293916</v>
+        <v>22.68570168033505</v>
       </c>
       <c r="O9">
         <v>-0.066441712562122127</v>
@@ -521,38 +557,38 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="3" t="s">
-        <v>9</v>
+      <c r="D10" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>-0.034893955854848717</v>
+        <v>-0.49956782694629182</v>
       </c>
       <c r="F10">
-        <v>-0.85237869285163093</v>
+        <v>0.012444682980755344</v>
       </c>
       <c r="G10">
-        <v>0.97610313217218714</v>
+        <v>-0.16253116930109901</v>
       </c>
       <c r="H10">
-        <v>93.209330861582075</v>
+        <v>0.036112262549535847</v>
       </c>
       <c r="I10">
-        <v>-0.18858547643812132</v>
+        <v>-0.14269325261956881</v>
       </c>
       <c r="J10">
-        <v>-13.043324383107596</v>
+        <v>0.18743491093416959</v>
       </c>
       <c r="K10">
-        <v>-0.31117756414737491</v>
+        <v>-0.12591826914450963</v>
       </c>
       <c r="L10">
-        <v>-15.324145529887653</v>
+        <v>0.06046814746539312</v>
       </c>
       <c r="M10">
-        <v>0.18975293391546941</v>
+        <v>0.18040828614983442</v>
       </c>
       <c r="N10">
-        <v>9.4297484405718315</v>
+        <v>-0.25399240579771099</v>
       </c>
       <c r="O10">
         <v>-0.071236462454314267</v>
@@ -562,44 +598,114 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="3" t="s">
-        <v>10</v>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0.059188094484505668</v>
+        <v>-12.065148784029642</v>
       </c>
       <c r="F11">
-        <v>0.66534940222148298</v>
+        <v>0.45112910992254557</v>
       </c>
       <c r="G11">
-        <v>1.057923784684214</v>
+        <v>-5.4870794699896219</v>
       </c>
       <c r="H11">
-        <v>46.489095870428791</v>
+        <v>1.3748774512498392</v>
       </c>
       <c r="I11">
-        <v>-0.14401303730116999</v>
+        <v>-5.1070428502248522</v>
       </c>
       <c r="J11">
-        <v>-4.5836863966824177</v>
+        <v>5.3296676626514845</v>
       </c>
       <c r="K11">
-        <v>1.0037646389787194</v>
+        <v>-4.3161536909247173</v>
       </c>
       <c r="L11">
-        <v>22.747460410840741</v>
+        <v>1.5006872972625942</v>
       </c>
       <c r="M11">
-        <v>-0.25924093970633388</v>
+        <v>8.8275213949009341</v>
       </c>
       <c r="N11">
-        <v>-5.9285464852716405</v>
+        <v>-5.6980824540193193</v>
       </c>
       <c r="O11">
         <v>-0.39167198332344499</v>
       </c>
       <c r="P11">
         <v>-6.0387419285142601</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>-0.13263716625761396</v>
+      </c>
+      <c r="F12">
+        <v>0.094130403017466127</v>
+      </c>
+      <c r="G12">
+        <v>-0.14172652120266449</v>
+      </c>
+      <c r="H12">
+        <v>0.011761657427417891</v>
+      </c>
+      <c r="I12">
+        <v>-0.24423178207928442</v>
+      </c>
+      <c r="J12">
+        <v>0.10086390925467098</v>
+      </c>
+      <c r="K12">
+        <v>-0.078654826541481995</v>
+      </c>
+      <c r="L12">
+        <v>-0.033009641507570811</v>
+      </c>
+      <c r="M12">
+        <v>-0.080570058362140901</v>
+      </c>
+      <c r="N12">
+        <v>-0.3864156037951974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>-2.1819818780379592</v>
+      </c>
+      <c r="F13">
+        <v>2.3243130252164934</v>
+      </c>
+      <c r="G13">
+        <v>-3.2591428889843126</v>
+      </c>
+      <c r="H13">
+        <v>0.30501802169601522</v>
+      </c>
+      <c r="I13">
+        <v>-5.9540972870124333</v>
+      </c>
+      <c r="J13">
+        <v>1.9535886577141897</v>
+      </c>
+      <c r="K13">
+        <v>-1.8364589160736724</v>
+      </c>
+      <c r="L13">
+        <v>-0.5580229165637578</v>
+      </c>
+      <c r="M13">
+        <v>-2.6853670776382286</v>
+      </c>
+      <c r="N13">
+        <v>-5.9048699482168443</v>
       </c>
     </row>
   </sheetData>
